--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\Desktop\P_GIT\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76035127-74CF-4385-A128-23D1D549031E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840C94F1-1B59-499F-83CB-748316962824}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Leetcode</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>Reverse String</t>
+  </si>
+  <si>
+    <t>GFG</t>
+  </si>
+  <si>
+    <t>Palindrome String</t>
   </si>
 </sst>
 </file>
@@ -363,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -390,6 +396,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\Desktop\P_GIT\Leetcode\Array\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\Desktop\P_GIT\2022\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840C94F1-1B59-499F-83CB-748316962824}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B62E343-28B3-40D0-8FD4-FF126DC0FC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Leetcode</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Palindrome String</t>
+  </si>
+  <si>
+    <t>Set Matrix Zeroes</t>
   </si>
 </sst>
 </file>
@@ -369,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,6 +407,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\Desktop\P_GIT\2022\Array\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\OneDrive - DXC Production\Desktop\Personal_git\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B62E343-28B3-40D0-8FD4-FF126DC0FC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE137B2-A661-4743-BC50-B99CFE2C0943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Leetcode</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Set Matrix Zeroes</t>
+  </si>
+  <si>
+    <t>Build Array from Permutation</t>
   </si>
 </sst>
 </file>
@@ -86,12 +89,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,12 +393,12 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>344</v>
       </c>
       <c r="B2" t="s">
@@ -400,7 +406,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -408,11 +414,19 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>73</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1920</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\OneDrive - DXC Production\Desktop\Personal_git\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE137B2-A661-4743-BC50-B99CFE2C0943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA83FFF-F76F-45C1-B1C4-575864C0C40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Leetcode</t>
   </si>
@@ -46,6 +46,27 @@
   </si>
   <si>
     <t>Build Array from Permutation</t>
+  </si>
+  <si>
+    <t>Minimize the Heights II</t>
+  </si>
+  <si>
+    <t>Minimize the Heights I</t>
+  </si>
+  <si>
+    <t>Find minimum and maximum element in an array</t>
+  </si>
+  <si>
+    <t>Kth smallest element</t>
+  </si>
+  <si>
+    <t>Kth Largest Element in an Array</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Java</t>
   </si>
 </sst>
 </file>
@@ -89,14 +110,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -378,55 +404,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>344</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>73</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>1920</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>215</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\OneDrive - DXC Production\Desktop\Personal_git\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA83FFF-F76F-45C1-B1C4-575864C0C40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3437E7-83F5-420D-B97C-EEE1395DEF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>Leetcode</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>Java</t>
+  </si>
+  <si>
+    <t>Combination Sum</t>
+  </si>
+  <si>
+    <t>Subsets</t>
   </si>
 </sst>
 </file>
@@ -110,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -124,6 +130,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,19 +414,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="53.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +438,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>344</v>
       </c>
@@ -435,7 +446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -443,7 +454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>73</v>
       </c>
@@ -451,7 +462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1920</v>
       </c>
@@ -459,7 +470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -470,7 +481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -481,7 +492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -492,7 +503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -503,7 +514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>215</v>
       </c>
@@ -512,6 +523,34 @@
       </c>
       <c r="C10" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="6">
+        <v>44982</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="6">
+        <v>44981</v>
       </c>
     </row>
   </sheetData>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\OneDrive - DXC Production\Desktop\Personal_git\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3437E7-83F5-420D-B97C-EEE1395DEF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167036B9-35D4-4C42-8FFA-E96FF82722CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Leetcode</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Subsets</t>
+  </si>
+  <si>
+    <t>Print sum of all subset</t>
   </si>
 </sst>
 </file>
@@ -414,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,6 +556,20 @@
         <v>44981</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="6">
+        <v>44983</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\OneDrive - DXC Production\Desktop\Personal_git\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167036B9-35D4-4C42-8FFA-E96FF82722CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A635481A-502B-473C-8FE6-C3C50CD322B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>Leetcode</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Print sum of all subset</t>
+  </si>
+  <si>
+    <t>Subsets II</t>
   </si>
 </sst>
 </file>
@@ -417,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
@@ -570,6 +573,20 @@
         <v>44983</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>90</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="6">
+        <v>44984</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\OneDrive - DXC Production\Desktop\Personal_git\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A635481A-502B-473C-8FE6-C3C50CD322B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9980EDD4-0C51-4EF7-8620-F7BD5C5AAE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>Leetcode</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Subsets II</t>
+  </si>
+  <si>
+    <t>Array Subset of another array</t>
   </si>
 </sst>
 </file>
@@ -420,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,6 +590,20 @@
         <v>44984</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="6">
+        <v>44985</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\OneDrive - DXC Production\Desktop\Personal_git\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9980EDD4-0C51-4EF7-8620-F7BD5C5AAE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7223A0C0-1015-4554-B1D2-9364089DA7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>Leetcode</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Array Subset of another array</t>
+  </si>
+  <si>
+    <t>Sort Colors</t>
   </si>
 </sst>
 </file>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -143,6 +146,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,17 +427,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="53.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -604,6 +608,20 @@
         <v>44985</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="7">
+        <v>44986</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\OneDrive - DXC Production\Desktop\Personal_git\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7223A0C0-1015-4554-B1D2-9364089DA7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1C22A5-D104-4F02-9A61-87CE2D03D6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t>Leetcode</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Sort Colors</t>
+  </si>
+  <si>
+    <t>Rotate Array to right by K</t>
   </si>
 </sst>
 </file>
@@ -427,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,6 +625,20 @@
         <v>44986</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>189</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="6">
+        <v>44992</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\OneDrive - DXC Production\Desktop\Personal_git\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1C22A5-D104-4F02-9A61-87CE2D03D6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB7442D-0ECF-4D2C-A80A-1E0792F665D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>Leetcode</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Rotate Array to right by K</t>
+  </si>
+  <si>
+    <t>Largest Element in Array</t>
   </si>
 </sst>
 </file>
@@ -430,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,8 +629,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>189</v>
+      <c r="A17" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -637,6 +640,20 @@
       </c>
       <c r="D17" s="6">
         <v>44992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="6">
+        <v>45000</v>
       </c>
     </row>
   </sheetData>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\OneDrive - DXC Production\Desktop\Personal_git\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB7442D-0ECF-4D2C-A80A-1E0792F665D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31B29C7-EC24-4010-9CE4-40BB961F55FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>Leetcode</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Largest Element in Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Second Largest in Array</t>
   </si>
 </sst>
 </file>
@@ -433,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,6 +659,20 @@
         <v>45000</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="6">
+        <v>45000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\OneDrive - DXC Production\Desktop\Personal_git\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31B29C7-EC24-4010-9CE4-40BB961F55FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C973EE-C818-4173-A9D3-FB9FEA16B033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>Leetcode</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Second Largest in Array</t>
+  </si>
+  <si>
+    <t>Cyclically rotate an array by one</t>
   </si>
 </sst>
 </file>
@@ -436,17 +439,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="53.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -673,6 +676,20 @@
         <v>45000</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="6">
+        <v>45000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\OneDrive - DXC Production\Desktop\Personal_git\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C973EE-C818-4173-A9D3-FB9FEA16B033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5969A9DE-3CF4-4275-A0EA-97C848F5495C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Leetcode</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>Cyclically rotate an array by one</t>
+  </si>
+  <si>
+    <t>Check if Array Is Sorted and Rotated</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted Array</t>
   </si>
 </sst>
 </file>
@@ -439,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,6 +696,34 @@
         <v>45000</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>1752</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="6">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="6">
+        <v>45000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\OneDrive - DXC Production\Desktop\Personal_git\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5969A9DE-3CF4-4275-A0EA-97C848F5495C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DE3FE4-6814-4ACA-95B5-19A8ACADDAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>Leetcode</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Remove Duplicates from Sorted Array</t>
+  </si>
+  <si>
+    <t>Rotate Array  to left by K</t>
   </si>
 </sst>
 </file>
@@ -126,12 +129,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -146,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -165,6 +174,10 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,10 +654,10 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="A17" s="8">
+        <v>189</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C17" t="s">
@@ -721,6 +734,20 @@
         <v>13</v>
       </c>
       <c r="D22" s="6">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="6">
         <v>45000</v>
       </c>
     </row>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\OneDrive - DXC Production\Desktop\Personal_git\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DE3FE4-6814-4ACA-95B5-19A8ACADDAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4127B2D0-9DF6-4ED2-A25E-0B6B193A293C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
   <si>
     <t>Leetcode</t>
   </si>
@@ -106,13 +106,19 @@
   </si>
   <si>
     <t>Rotate Array  to left by K</t>
+  </si>
+  <si>
+    <t>Move all zeroes to end of array</t>
+  </si>
+  <si>
+    <t>Searching an element in a sorted array</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +129,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -155,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -178,6 +192,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="C25" sqref="C25:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,6 +768,34 @@
         <v>45000</v>
       </c>
     </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="6">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="6">
+        <v>45000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\OneDrive - DXC Production\Desktop\Personal_git\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4127B2D0-9DF6-4ED2-A25E-0B6B193A293C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D79DA7E-8CC8-485C-BF5C-AA2F084ED60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
   <si>
     <t>Leetcode</t>
   </si>
@@ -112,13 +112,19 @@
   </si>
   <si>
     <t>Searching an element in a sorted array</t>
+  </si>
+  <si>
+    <t>Union of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>Intersection of Two Arrays</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,14 +135,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -169,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -192,9 +190,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:D25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,17 +777,45 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" t="s">
         <v>28</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="6">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="6">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>349</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="6">
         <v>45000</v>
       </c>
     </row>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\OneDrive - DXC Production\Desktop\Personal_git\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D79DA7E-8CC8-485C-BF5C-AA2F084ED60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4545BF1-E35D-4A22-8D99-EE649DAF1576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
   <si>
     <t>Leetcode</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>Intersection of Two Arrays</t>
+  </si>
+  <si>
+    <t>Missing Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java </t>
   </si>
 </sst>
 </file>
@@ -470,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,6 +825,20 @@
         <v>45000</v>
       </c>
     </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>268</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="6">
+        <v>45000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\OneDrive - DXC Production\Desktop\Personal_git\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4545BF1-E35D-4A22-8D99-EE649DAF1576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5531BC9F-DF20-4F75-95B2-E68F754DE935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
   <si>
     <t>Leetcode</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t xml:space="preserve">Java </t>
+  </si>
+  <si>
+    <t>Max Consecutive Ones</t>
   </si>
 </sst>
 </file>
@@ -476,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,6 +842,20 @@
         <v>45000</v>
       </c>
     </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>485</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="6">
+        <v>45003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\OneDrive - DXC Production\Desktop\Personal_git\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5531BC9F-DF20-4F75-95B2-E68F754DE935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2748562D-1A20-4ABF-A110-D35BD86CD918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
   <si>
     <t>Leetcode</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Max Consecutive Ones</t>
+  </si>
+  <si>
+    <t>Single Number</t>
   </si>
 </sst>
 </file>
@@ -479,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="C30" sqref="C30:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,6 +859,20 @@
         <v>45003</v>
       </c>
     </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>136</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="6">
+        <v>45003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\OneDrive - DXC Production\Desktop\Personal_git\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2748562D-1A20-4ABF-A110-D35BD86CD918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCF1804-2E0E-47EA-90E8-E8D900E164B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
   <si>
     <t>Leetcode</t>
   </si>
@@ -130,6 +141,58 @@
   </si>
   <si>
     <t>Single Number</t>
+  </si>
+  <si>
+    <t>Ninja</t>
+  </si>
+  <si>
+    <t>Longest Subarray With Sum K</t>
+  </si>
+  <si>
+    <t>Longest Subarray With Sum K.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0&lt;=A[i]&lt;=10^9 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It will work for +ve elements in an array</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>For +ve and -ve values of element in array and K</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
 </sst>
 </file>
@@ -153,7 +216,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +226,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -179,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -202,6 +271,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:D30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,20 +575,27 @@
     <col min="1" max="1" width="12.85546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="53.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>344</v>
       </c>
@@ -514,7 +603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -522,7 +611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>73</v>
       </c>
@@ -530,7 +619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1920</v>
       </c>
@@ -538,7 +627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -549,7 +638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -560,7 +649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -571,7 +660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -582,7 +671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>215</v>
       </c>
@@ -593,7 +682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>39</v>
       </c>
@@ -607,7 +696,7 @@
         <v>44982</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>78</v>
       </c>
@@ -621,7 +710,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
@@ -635,7 +724,7 @@
         <v>44983</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>90</v>
       </c>
@@ -649,7 +738,7 @@
         <v>44984</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>3</v>
       </c>
@@ -663,7 +752,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>75</v>
       </c>
@@ -677,21 +766,21 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>189</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="C17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="14">
         <v>44992</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
@@ -705,7 +794,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>3</v>
       </c>
@@ -719,7 +808,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>3</v>
       </c>
@@ -733,7 +822,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>1752</v>
       </c>
@@ -747,7 +836,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>26</v>
       </c>
@@ -761,21 +850,21 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="6">
+      <c r="C23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="14">
         <v>45000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>3</v>
       </c>
@@ -789,7 +878,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>3</v>
       </c>
@@ -803,7 +892,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>3</v>
       </c>
@@ -817,7 +906,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>349</v>
       </c>
@@ -831,7 +920,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>268</v>
       </c>
@@ -845,7 +934,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>485</v>
       </c>
@@ -859,7 +948,7 @@
         <v>45003</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>136</v>
       </c>
@@ -871,6 +960,40 @@
       </c>
       <c r="D30" s="6">
         <v>45003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="12">
+        <v>45003</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="12">
+        <v>45003</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\OneDrive - DXC Production\Desktop\Personal_git\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCF1804-2E0E-47EA-90E8-E8D900E164B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1BD9CB-1531-45DF-AC68-6E0C918CD878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -248,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -284,6 +284,9 @@
     <xf numFmtId="15" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,7 +570,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,7 +966,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="17" t="s">
         <v>35</v>
       </c>
       <c r="B31" s="11" t="s">
@@ -980,7 +983,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="17" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="11" t="s">

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\OneDrive - DXC Production\Desktop\Personal_git\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1BD9CB-1531-45DF-AC68-6E0C918CD878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7EE9E3-7852-43F3-8FDF-361A29B01C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
   <si>
     <t>Leetcode</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>Longest Sub-Array with Sum K</t>
   </si>
 </sst>
 </file>
@@ -567,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,6 +1002,23 @@
         <v>39</v>
       </c>
     </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="12">
+        <v>45003</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\OneDrive - DXC Production\Desktop\Personal_git\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7EE9E3-7852-43F3-8FDF-361A29B01C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CEE43E-775C-4492-AD7F-2D0E0033E3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="44">
   <si>
     <t>Leetcode</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>Longest Sub-Array with Sum K</t>
+  </si>
+  <si>
+    <t>Two Sum</t>
   </si>
 </sst>
 </file>
@@ -570,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,6 +1022,20 @@
         <v>39</v>
       </c>
     </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="6">
+        <v>45006</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\OneDrive - DXC Production\Desktop\Personal_git\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CEE43E-775C-4492-AD7F-2D0E0033E3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD09E47-ED6A-4823-9D02-651BDC4E184F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="45">
   <si>
     <t>Leetcode</t>
   </si>
@@ -200,6 +200,9 @@
   <si>
     <t>Two Sum</t>
   </si>
+  <si>
+    <t>Find all pairs with a given sum</t>
+  </si>
 </sst>
 </file>
 
@@ -222,7 +225,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,6 +244,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -254,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -292,6 +301,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,16 +1040,30 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="A34" s="18">
         <v>1</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="6">
+      <c r="C34" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="20">
+        <v>45006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="20">
         <v>45006</v>
       </c>
     </row>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\OneDrive - DXC Production\Desktop\Personal_git\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD09E47-ED6A-4823-9D02-651BDC4E184F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3CFA5A-01A3-41AA-B31A-519DD2F1439C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
   <si>
     <t>Leetcode</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>Find all pairs with a given sum</t>
+  </si>
+  <si>
+    <t>Majority Element</t>
   </si>
 </sst>
 </file>
@@ -590,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,6 +1070,20 @@
         <v>45006</v>
       </c>
     </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>169</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="7">
+        <v>45019</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\OneDrive - DXC Production\Desktop\Personal_git\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3CFA5A-01A3-41AA-B31A-519DD2F1439C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D6782F-1B7E-47F9-B438-91952E06B7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="48">
   <si>
     <t>Leetcode</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>Majority Element</t>
+  </si>
+  <si>
+    <t>Maximum Subarray</t>
+  </si>
+  <si>
+    <t>53/GFG</t>
   </si>
 </sst>
 </file>
@@ -266,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -312,6 +318,9 @@
     <xf numFmtId="15" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,11 +1086,25 @@
       <c r="B36" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="22" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="7">
         <v>45019</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="7">
+        <v>45020</v>
       </c>
     </row>
   </sheetData>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\OneDrive - DXC Production\Desktop\Personal_git\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D6782F-1B7E-47F9-B438-91952E06B7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6D7B8C-2084-4DE7-A255-86B775DEA0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="50">
   <si>
     <t>Leetcode</t>
   </si>
@@ -212,6 +212,12 @@
   <si>
     <t>53/GFG</t>
   </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>The GFG Q has problem try only LC</t>
+  </si>
 </sst>
 </file>
 
@@ -234,7 +240,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,6 +265,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -274,16 +286,10 @@
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -306,8 +312,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -322,6 +326,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,74 +614,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="53.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="22" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>344</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>73</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>1920</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
@@ -677,10 +689,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
@@ -688,10 +700,10 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
@@ -699,10 +711,10 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
@@ -710,10 +722,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>215</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
@@ -721,7 +733,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>39</v>
       </c>
       <c r="B11" t="s">
@@ -730,12 +742,12 @@
       <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>44982</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>78</v>
       </c>
       <c r="B12" t="s">
@@ -744,26 +756,26 @@
       <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>44981</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>44983</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>90</v>
       </c>
       <c r="B14" t="s">
@@ -772,26 +784,26 @@
       <c r="C14" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <v>44984</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="4">
         <v>44985</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>75</v>
       </c>
       <c r="B16" t="s">
@@ -800,26 +812,26 @@
       <c r="C16" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <v>44986</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="6">
         <v>189</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="14">
+      <c r="C17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="12">
         <v>44992</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B18" t="s">
@@ -828,12 +840,12 @@
       <c r="C18" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="4">
         <v>45000</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B19" t="s">
@@ -842,12 +854,12 @@
       <c r="C19" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="4">
         <v>45000</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B20" t="s">
@@ -856,12 +868,12 @@
       <c r="C20" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="4">
         <v>45000</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>1752</v>
       </c>
       <c r="B21" t="s">
@@ -870,12 +882,12 @@
       <c r="C21" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="4">
         <v>45000</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="3">
         <v>26</v>
       </c>
       <c r="B22" t="s">
@@ -884,26 +896,26 @@
       <c r="C22" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="4">
         <v>45000</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="14">
+      <c r="C23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="12">
         <v>45000</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B24" t="s">
@@ -912,12 +924,12 @@
       <c r="C24" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="4">
         <v>45000</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B25" t="s">
@@ -926,12 +938,12 @@
       <c r="C25" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="4">
         <v>45000</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B26" t="s">
@@ -940,12 +952,12 @@
       <c r="C26" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="4">
         <v>45000</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="3">
         <v>349</v>
       </c>
       <c r="B27" t="s">
@@ -954,12 +966,12 @@
       <c r="C27" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="4">
         <v>45000</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="3">
         <v>268</v>
       </c>
       <c r="B28" t="s">
@@ -968,12 +980,12 @@
       <c r="C28" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="4">
         <v>45000</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="3">
         <v>485</v>
       </c>
       <c r="B29" t="s">
@@ -982,12 +994,12 @@
       <c r="C29" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="4">
         <v>45003</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30" s="3">
         <v>136</v>
       </c>
       <c r="B30" t="s">
@@ -996,115 +1008,132 @@
       <c r="C30" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="4">
         <v>45003</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="10">
         <v>45003</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="10">
         <v>45003</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="11" t="s">
+      <c r="A33" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="10">
         <v>45003</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="18">
+      <c r="A34" s="14">
         <v>1</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="20">
+      <c r="C34" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="16">
         <v>45006</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="21" t="s">
+      <c r="A35" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="20">
+      <c r="C35" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="16">
         <v>45006</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+      <c r="A36" s="3">
         <v>169</v>
       </c>
       <c r="B36" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="7">
+      <c r="C36" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="5">
         <v>45019</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B37" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="7">
+      <c r="C37" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="5">
         <v>45020</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>121</v>
+      </c>
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="5">
+        <v>45020</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\OneDrive - DXC Production\Desktop\Personal_git\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6D7B8C-2084-4DE7-A255-86B775DEA0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA5DCE0-EE7A-495D-92C7-1935182104E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
   <si>
     <t>Leetcode</t>
   </si>
@@ -218,6 +218,18 @@
   <si>
     <t>The GFG Q has problem try only LC</t>
   </si>
+  <si>
+    <t>Rearrange Array Elements by Sign</t>
+  </si>
+  <si>
+    <t>Alternate positive and negative numbers</t>
+  </si>
+  <si>
+    <t>Varitey 1- where +ve and -ve are same in number</t>
+  </si>
+  <si>
+    <t>Varitey 2- where +ve and -ve are not in number</t>
+  </si>
 </sst>
 </file>
 
@@ -240,7 +252,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +283,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -284,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -334,6 +352,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +649,7 @@
     <col min="1" max="1" width="12.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="53.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="54.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1136,6 +1160,40 @@
         <v>49</v>
       </c>
     </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="23">
+        <v>2149</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="25">
+        <v>45021</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="25">
+        <v>45021</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\OneDrive - DXC Production\Desktop\Personal_git\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA5DCE0-EE7A-495D-92C7-1935182104E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE7512F-C911-460F-A96D-304C460FB38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="55">
   <si>
     <t>Leetcode</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>Varitey 2- where +ve and -ve are not in number</t>
+  </si>
+  <si>
+    <t>Leaders in an array</t>
   </si>
 </sst>
 </file>
@@ -302,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -358,6 +361,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,6 +1200,20 @@
         <v>53</v>
       </c>
     </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="4">
+        <v>45022</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\OneDrive - DXC Production\Desktop\Personal_git\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE7512F-C911-460F-A96D-304C460FB38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7DF36F-7DFC-4753-821C-15B44FA042C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="56">
   <si>
     <t>Leetcode</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>Leaders in an array</t>
+  </si>
+  <si>
+    <t>Next Permutation</t>
   </si>
 </sst>
 </file>
@@ -644,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,6 +1217,20 @@
         <v>45022</v>
       </c>
     </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>31</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="4">
+        <v>45023</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\OneDrive - DXC Production\Desktop\Personal_git\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7DF36F-7DFC-4753-821C-15B44FA042C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0046DF84-2BC4-4F77-BE60-43A50AEFE76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="58">
   <si>
     <t>Leetcode</t>
   </si>
@@ -235,6 +235,12 @@
   </si>
   <si>
     <t>Next Permutation</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>128/GFG</t>
   </si>
 </sst>
 </file>
@@ -647,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,6 +1237,20 @@
         <v>45023</v>
       </c>
     </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="4">
+        <v>45023</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\OneDrive - DXC Production\Desktop\Personal_git\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0046DF84-2BC4-4F77-BE60-43A50AEFE76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F741D5-F058-4811-9968-A1403D2A0473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="58">
   <si>
     <t>Leetcode</t>
   </si>
@@ -653,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,6 +1251,20 @@
         <v>45023</v>
       </c>
     </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>73</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="4">
+        <v>45026</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\OneDrive - DXC Production\Desktop\Personal_git\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F741D5-F058-4811-9968-A1403D2A0473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3803385-DAB6-4FFF-94C3-FE0434B39100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="59">
   <si>
     <t>Leetcode</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>128/GFG</t>
+  </si>
+  <si>
+    <t>Rotate Image</t>
   </si>
 </sst>
 </file>
@@ -653,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,6 +1268,20 @@
         <v>45026</v>
       </c>
     </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="4">
+        <v>45026</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\OneDrive - DXC Production\Desktop\Personal_git\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3803385-DAB6-4FFF-94C3-FE0434B39100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D8B836-4CF7-4F58-8201-DCF794541FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="60">
   <si>
     <t>Leetcode</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>Rotate Image</t>
+  </si>
+  <si>
+    <t>Majority Element II</t>
   </si>
 </sst>
 </file>
@@ -656,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,6 +1285,20 @@
         <v>45026</v>
       </c>
     </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>229</v>
+      </c>
+      <c r="B46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="4">
+        <v>45031</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\OneDrive - DXC Production\Desktop\Personal_git\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D8B836-4CF7-4F58-8201-DCF794541FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024CA9FC-0D09-4E0A-B0AA-8FAE8B47D274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="62">
   <si>
     <t>Leetcode</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>Majority Element II</t>
+  </si>
+  <si>
+    <t>3 Sum</t>
+  </si>
+  <si>
+    <t>Similar to two but slight variation</t>
   </si>
 </sst>
 </file>
@@ -659,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,6 +1305,23 @@
         <v>45031</v>
       </c>
     </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="14">
+        <v>15</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="16">
+        <v>45031</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\OneDrive - DXC Production\Desktop\Personal_git\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024CA9FC-0D09-4E0A-B0AA-8FAE8B47D274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0997CD1B-A72C-4F63-AD87-EAF0BE2C2D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="64">
   <si>
     <t>Leetcode</t>
   </si>
@@ -253,6 +253,12 @@
   </si>
   <si>
     <t>Similar to two but slight variation</t>
+  </si>
+  <si>
+    <t>Similar to Two Sum and Three Sum problem</t>
+  </si>
+  <si>
+    <t>4 Sum</t>
   </si>
 </sst>
 </file>
@@ -326,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -384,6 +390,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1322,6 +1331,23 @@
         <v>61</v>
       </c>
     </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="28">
+        <v>18</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="15">
+        <v>45036</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\OneDrive - DXC Production\Desktop\Personal_git\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0997CD1B-A72C-4F63-AD87-EAF0BE2C2D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66E7268-C026-4928-AD5B-C47B63578752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
   <si>
     <t>Leetcode</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>4 Sum</t>
+  </si>
+  <si>
+    <t>Spiral Matrix</t>
   </si>
 </sst>
 </file>
@@ -674,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1341,11 +1344,25 @@
       <c r="C48" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D48" s="16">
         <v>45036</v>
       </c>
       <c r="E48" s="15" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>54</v>
+      </c>
+      <c r="B49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="4">
+        <v>45037</v>
       </c>
     </row>
   </sheetData>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\OneDrive - DXC Production\Desktop\Personal_git\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66E7268-C026-4928-AD5B-C47B63578752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83D3C48-D84E-4F78-8AB8-9436149D48D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="68">
   <si>
     <t>Leetcode</t>
   </si>
@@ -262,6 +262,15 @@
   </si>
   <si>
     <t>Spiral Matrix</t>
+  </si>
+  <si>
+    <t>Subarray Sum Equals K</t>
+  </si>
+  <si>
+    <t>Subarrays with XOR ‘K’</t>
+  </si>
+  <si>
+    <t>Coding Ninja</t>
   </si>
 </sst>
 </file>
@@ -677,15 +686,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="53.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="54.28515625" style="8" customWidth="1"/>
@@ -1365,6 +1374,34 @@
         <v>45037</v>
       </c>
     </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>560</v>
+      </c>
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="4">
+        <v>45049</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="4">
+        <v>45049</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\OneDrive - DXC Production\Desktop\Personal_git\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83D3C48-D84E-4F78-8AB8-9436149D48D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456A86A6-0CC6-43C0-978A-ACAB29865E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="73">
   <si>
     <t>Leetcode</t>
   </si>
@@ -272,6 +272,21 @@
   <si>
     <t>Coding Ninja</t>
   </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>Merge Without Extra Space</t>
+  </si>
+  <si>
+    <t>Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>Here we need to merge everything and put it in the first array</t>
+  </si>
+  <si>
+    <t>Find Missing And Repeating</t>
+  </si>
 </sst>
 </file>
 
@@ -294,7 +309,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,6 +346,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -344,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -406,6 +427,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,7 +1386,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>54</v>
       </c>
@@ -1374,7 +1400,7 @@
         <v>45037</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>560</v>
       </c>
@@ -1388,7 +1414,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>67</v>
       </c>
@@ -1400,6 +1426,65 @@
       </c>
       <c r="D51" s="4">
         <v>45049</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="4">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="29">
+        <v>88</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="31">
+        <v>45054</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="31">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="4">
+        <v>45054</v>
       </c>
     </row>
   </sheetData>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\OneDrive - DXC Production\Desktop\Personal_git\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456A86A6-0CC6-43C0-978A-ACAB29865E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6480E2-8C41-4DE1-BA6C-E66F83B8C8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="74">
   <si>
     <t>Leetcode</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>Find Missing And Repeating</t>
+  </si>
+  <si>
+    <t>Maximum Product Subarray</t>
   </si>
 </sst>
 </file>
@@ -712,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,6 +1490,20 @@
         <v>45054</v>
       </c>
     </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>152</v>
+      </c>
+      <c r="B56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="5">
+        <v>45057</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnaik27\OneDrive - DXC Production\Desktop\Personal_git\Leetcode\Array\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vaishali\Desktop\GIT\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6480E2-8C41-4DE1-BA6C-E66F83B8C8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A066E402-50A7-48FB-8CE6-52DC44C314EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="78">
   <si>
     <t>Leetcode</t>
   </si>
@@ -290,6 +279,82 @@
   <si>
     <t>Maximum Product Subarray</t>
   </si>
+  <si>
+    <t>GFG/Coding Ninja</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Brute force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-sort the arr and the last element is the largest element,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Better solution-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> does not exits,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optimal solution-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> we need to compare each element in the array and return the largest element at last but we need to cover an edge case where the arr has only one element.</t>
+    </r>
+  </si>
+  <si>
+    <t>IN Coding ninja problem use set function to insert the element and not add it will give wrong ans</t>
+  </si>
 </sst>
 </file>
 
@@ -312,7 +377,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,6 +420,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -368,73 +439,113 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="15" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="15" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -715,792 +826,802 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="53.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="54.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="53.88671875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="11.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="54.33203125" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>344</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>73</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1920</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>215</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>39</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="15">
         <v>44982</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>78</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="15">
         <v>44981</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="15">
         <v>44983</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>90</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="15">
         <v>44984</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="15">
         <v>44985</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>75</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="5">
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="16">
         <v>44986</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
         <v>189</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="12">
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="17">
         <v>44992</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="13">
         <v>45000</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="E18" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="15">
         <v>45000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="15">
         <v>45000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>1752</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="4">
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="15">
         <v>45000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+    <row r="22" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
         <v>26</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="4">
+      <c r="C22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="11">
         <v>45000</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="7" t="s">
+      <c r="E22" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="12">
+      <c r="C23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="17">
         <v>45000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="4">
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="15">
         <v>45000</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="4">
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="15">
         <v>45000</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="4">
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="15">
         <v>45000</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>349</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="4">
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="15">
         <v>45000</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>268</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="15">
         <v>45000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>485</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="15">
         <v>45003</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>136</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="15">
         <v>45003</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="18">
         <v>45003</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="18">
         <v>45003</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="33" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="9" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="18">
         <v>45003</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="33" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="14">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
         <v>1</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="16">
+      <c r="C34" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="19">
         <v>45006</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="17" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="16">
+      <c r="C35" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="19">
         <v>45006</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
         <v>169</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="5">
+      <c r="C36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="16">
         <v>45019</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="5">
+      <c r="C37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="16">
         <v>45020</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
         <v>121</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C38" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="5">
+      <c r="C38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="16">
         <v>45020</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="31" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="23">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
         <v>2149</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="25">
+      <c r="C39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="20">
         <v>45021</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="34" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="24" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="25">
+      <c r="C40" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="20">
         <v>45021</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="34" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="27" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="4">
+      <c r="C41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="15">
         <v>45022</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
         <v>31</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="4">
+      <c r="C42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="15">
         <v>45023</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="4">
+      <c r="C43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="15">
         <v>45023</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
         <v>73</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C44" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="4">
+      <c r="C44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="15">
         <v>45026</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
         <v>48</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C45" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="4">
+      <c r="C45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="15">
         <v>45026</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
         <v>229</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="15">
         <v>45031</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="14">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
         <v>15</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D47" s="19">
         <v>45031</v>
       </c>
-      <c r="E47" s="15" t="s">
+      <c r="E47" s="35" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="28">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="8">
         <v>18</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="16">
+      <c r="C48" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="19">
         <v>45036</v>
       </c>
-      <c r="E48" s="15" t="s">
+      <c r="E48" s="35" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
         <v>54</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="4">
+      <c r="C49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="15">
         <v>45037</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
         <v>560</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="4">
+      <c r="C50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="15">
         <v>45049</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C51" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="4">
+      <c r="C51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="15">
         <v>45049</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
         <v>56</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C52" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="4">
+      <c r="C52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="15">
         <v>45054</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="29">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="9">
         <v>88</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="31">
+      <c r="C53" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="21">
         <v>45054</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="31" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B54" s="30" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C54" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="31">
+      <c r="C54" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="21">
         <v>45054</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B55" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C55" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="4">
+      <c r="C55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="15">
         <v>45054</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
         <v>152</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C56" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="5">
+      <c r="C56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="16">
         <v>45057</v>
       </c>
     </row>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vaishali\Desktop\GIT\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A066E402-50A7-48FB-8CE6-52DC44C314EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E87DB3-5932-4A9A-AC98-17D8C86C70F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -439,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -545,6 +545,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -828,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1106,13 +1109,13 @@
       </c>
     </row>
     <row r="22" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
+      <c r="A22" s="36">
         <v>26</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="11">

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vaishali\Desktop\GIT\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E87DB3-5932-4A9A-AC98-17D8C86C70F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4D39C0-E438-48DE-A9F0-1718BA04D8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="82">
   <si>
     <t>Leetcode</t>
   </si>
@@ -355,6 +355,21 @@
   <si>
     <t>IN Coding ninja problem use set function to insert the element and not add it will give wrong ans</t>
   </si>
+  <si>
+    <t>Move Zeroes</t>
+  </si>
+  <si>
+    <t>08-19-2023</t>
+  </si>
+  <si>
+    <t>1. This problem has only brute force and optimal solution (no better solution).
+2. In optimal solution, we will find the first occurrence of zero so we will start j from -1. 
+3. once we find or not find the first occurrence we will check for edge case if zero is present or not.
+4. once we get the first occurence we will iterate from the next non-zero element and keep on swapping</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
 </sst>
 </file>
 
@@ -377,7 +392,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,6 +441,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -439,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -549,6 +570,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -841,7 +887,7 @@
     <col min="2" max="2" width="53.88671875" style="12" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="2"/>
     <col min="4" max="4" width="11.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="54.33203125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="77.109375" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -1139,19 +1185,20 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="10" t="s">
+    <row r="24" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="15">
+      <c r="C24" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="43">
         <v>45000</v>
       </c>
+      <c r="E24" s="44"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -1513,7 +1560,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>54</v>
       </c>
@@ -1527,7 +1574,7 @@
         <v>45037</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>560</v>
       </c>
@@ -1541,7 +1588,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>67</v>
       </c>
@@ -1555,7 +1602,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>56</v>
       </c>
@@ -1569,7 +1616,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
         <v>88</v>
       </c>
@@ -1586,7 +1633,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>3</v>
       </c>
@@ -1600,7 +1647,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>3</v>
       </c>
@@ -1614,7 +1661,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>152</v>
       </c>
@@ -1626,6 +1673,26 @@
       </c>
       <c r="D56" s="16">
         <v>45057</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="40" customFormat="1" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="37">
+        <v>283</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="E57" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="F57" s="40" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vaishali\Desktop\GIT\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4D39C0-E438-48DE-A9F0-1718BA04D8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6957C015-8AE6-4DC5-8C7B-8CE7B10E7942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="83">
   <si>
     <t>Leetcode</t>
   </si>
@@ -369,6 +369,123 @@
   </si>
   <si>
     <t>easy</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Type-1:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Where we need to return "Yes/No".
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Type-2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Where we need to return the index of elements which add up to target.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Brute force Approach-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Use two for loops and check addition of each elements matches with if so return its index or "Yes/No" string.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Better Approach-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+We will use a hashmap and hash each after checking if the arr[i]-target is present in the hashmap if not present we will put the arr[i] in hashmap along with its index.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Optimal Approach-(Only for Variety 1)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.We need to sort the array
+2. we will use 2 pointer approach where we will place left pointer at start and right pointer at the end and will add both the element and check if it matches with target if it is less than target we will move the left pointer and if it is more than target we will move the right pointer.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -448,7 +565,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -456,145 +573,238 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -877,825 +1087,837 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="53.88671875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="11.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="77.109375" style="31" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="53.88671875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="8"/>
+    <col min="4" max="4" width="11.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="77.109375" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="6">
         <v>344</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="6">
         <v>73</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="6">
         <v>1920</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="6">
         <v>215</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="6">
         <v>39</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="15">
+      <c r="C11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="12">
         <v>44982</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="A12" s="6">
         <v>78</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="15">
+      <c r="C12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="12">
         <v>44981</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="15">
+      <c r="C13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="12">
         <v>44983</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="13">
         <v>90</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="15">
+      <c r="C14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="12">
         <v>44984</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="15">
+      <c r="C15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="12">
         <v>44985</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="13">
         <v>75</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="16">
+      <c r="C16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="14">
         <v>44986</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="15">
         <v>189</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="17">
+      <c r="C17" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="18">
         <v>44992</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:6" s="19" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="13">
+      <c r="C18" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="20">
         <v>45000</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="22" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="15">
+      <c r="C19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="12">
         <v>45000</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="15">
+      <c r="C20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="12">
         <v>45000</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="13">
         <v>1752</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="15">
+      <c r="C21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="12">
         <v>45000</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="36">
+    <row r="22" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="23">
         <v>26</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="11">
+      <c r="C22" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="24">
         <v>45000</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="17">
+      <c r="C23" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="18">
         <v>45000</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="41" t="s">
+    <row r="24" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="43">
+      <c r="C24" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="28">
         <v>45000</v>
       </c>
-      <c r="E24" s="44"/>
+      <c r="E24" s="29"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="15">
+      <c r="C25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="12">
         <v>45000</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="15">
+      <c r="C26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="12">
         <v>45000</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="13">
         <v>349</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="15">
+      <c r="C27" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="12">
         <v>45000</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="13">
         <v>268</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="12">
         <v>45000</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="13">
         <v>485</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="12">
         <v>45003</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="13">
         <v>136</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="12">
         <v>45003</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="34">
         <v>45003</v>
       </c>
-      <c r="E31" s="33" t="s">
+      <c r="E31" s="35" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="34">
         <v>45003</v>
       </c>
-      <c r="E32" s="33" t="s">
+      <c r="E32" s="35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="34">
         <v>45003</v>
       </c>
-      <c r="E33" s="33" t="s">
+      <c r="E33" s="35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
+    <row r="34" spans="1:6" s="41" customFormat="1" ht="239.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="36">
         <v>1</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="19">
+      <c r="C34" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="38">
         <v>45006</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="E34" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="41" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="19">
+      <c r="C35" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="38">
         <v>45006</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="E35" s="39"/>
+      <c r="F35" s="40"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="13">
         <v>169</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="16">
+      <c r="C36" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="14">
         <v>45019</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="16">
+      <c r="C37" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="14">
         <v>45020</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="13">
         <v>121</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="16">
+      <c r="C38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="14">
         <v>45020</v>
       </c>
-      <c r="E38" s="31" t="s">
+      <c r="E38" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="7">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="43">
         <v>2149</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="20">
+      <c r="C39" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="46">
         <v>45021</v>
       </c>
-      <c r="E39" s="34" t="s">
+      <c r="E39" s="47" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="20">
+      <c r="C40" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="46">
         <v>45021</v>
       </c>
-      <c r="E40" s="34" t="s">
+      <c r="E40" s="47" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="15">
+      <c r="C41" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="12">
         <v>45022</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="13">
         <v>31</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="15">
+      <c r="C42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="12">
         <v>45023</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="15">
+      <c r="C43" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="12">
         <v>45023</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="13">
         <v>73</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="15">
+      <c r="C44" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="12">
         <v>45026</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="13">
         <v>48</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="15">
+      <c r="C45" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="12">
         <v>45026</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="13">
         <v>229</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D46" s="12">
         <v>45031</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="5">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="48">
         <v>15</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D47" s="49">
         <v>45031</v>
       </c>
-      <c r="E47" s="35" t="s">
+      <c r="E47" s="50" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="8">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="36">
         <v>18</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="19">
+      <c r="C48" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="49">
         <v>45036</v>
       </c>
-      <c r="E48" s="35" t="s">
+      <c r="E48" s="50" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+      <c r="A49" s="13">
         <v>54</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="15">
+      <c r="C49" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="12">
         <v>45037</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+      <c r="A50" s="13">
         <v>560</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="15">
+      <c r="C50" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="12">
         <v>45049</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="15">
+      <c r="C51" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="12">
         <v>45049</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+      <c r="A52" s="13">
         <v>56</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="15">
+      <c r="C52" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="12">
         <v>45054</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="9">
+      <c r="A53" s="52">
         <v>88</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="21">
+      <c r="C53" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="55">
         <v>45054</v>
       </c>
-      <c r="E53" s="31" t="s">
+      <c r="E53" s="9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="28" t="s">
+      <c r="B54" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="C54" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="21">
+      <c r="C54" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="55">
         <v>45054</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="15">
+      <c r="C55" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="12">
         <v>45054</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+      <c r="A56" s="13">
         <v>152</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="16">
+      <c r="C56" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="14">
         <v>45057</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="40" customFormat="1" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="37">
+    <row r="57" spans="1:6" s="60" customFormat="1" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="56">
         <v>283</v>
       </c>
-      <c r="B57" s="38" t="s">
+      <c r="B57" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="37" t="s">
+      <c r="C57" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="E57" s="39" t="s">
+      <c r="E57" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="F57" s="40" t="s">
+      <c r="F57" s="60" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F34:F35"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vaishali\Desktop\GIT\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6957C015-8AE6-4DC5-8C7B-8CE7B10E7942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3601F0B9-F4C4-4578-A389-14D5F0381CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="85">
   <si>
     <t>Leetcode</t>
   </si>
@@ -485,6 +485,78 @@
       </rPr>
       <t>1.We need to sort the array
 2. we will use 2 pointer approach where we will place left pointer at start and right pointer at the end and will add both the element and check if it matches with target if it is less than target we will move the left pointer and if it is more than target we will move the right pointer.</t>
+    </r>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Brute Force-
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Using a sorting Algo like Merge Sort but TC--&gt;O(NlogN)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Better Approach-
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Using 3 counter and counting how many number of 0,1 and 2 are present and then running a loop and changing the main array based on the three counters.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Optimal Approach</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Dutch National Flag</t>
     </r>
   </si>
 </sst>
@@ -509,7 +581,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -561,6 +633,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,7 +707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -742,68 +820,75 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1087,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1101,7 +1186,7 @@
     <col min="6" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1118,7 +1203,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>344</v>
       </c>
@@ -1126,7 +1211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -1134,7 +1219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>73</v>
       </c>
@@ -1142,7 +1227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>1920</v>
       </c>
@@ -1150,7 +1235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -1161,7 +1246,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
@@ -1172,7 +1257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
@@ -1183,7 +1268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
@@ -1194,7 +1279,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>215</v>
       </c>
@@ -1205,7 +1290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>39</v>
       </c>
@@ -1219,7 +1304,7 @@
         <v>44982</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>78</v>
       </c>
@@ -1233,7 +1318,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>3</v>
       </c>
@@ -1247,7 +1332,7 @@
         <v>44983</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>90</v>
       </c>
@@ -1261,7 +1346,7 @@
         <v>44984</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>3</v>
       </c>
@@ -1275,18 +1360,24 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+    <row r="16" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
         <v>75</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="14">
+      <c r="C16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="63">
         <v>44986</v>
+      </c>
+      <c r="E16" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="61" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1546,7 +1637,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="41" customFormat="1" ht="239.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="40" customFormat="1" ht="239.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="36">
         <v>1</v>
       </c>
@@ -1562,15 +1653,15 @@
       <c r="E34" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F34" s="40" t="s">
+      <c r="F34" s="60" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="41" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="40" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="41" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="38" t="s">
@@ -1580,7 +1671,7 @@
         <v>45006</v>
       </c>
       <c r="E35" s="39"/>
-      <c r="F35" s="40"/>
+      <c r="F35" s="60"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
@@ -1628,36 +1719,36 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="43">
+      <c r="A39" s="42">
         <v>2149</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="46">
+      <c r="C39" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="45">
         <v>45021</v>
       </c>
-      <c r="E39" s="47" t="s">
+      <c r="E39" s="46" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="44" t="s">
+      <c r="B40" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="46">
+      <c r="C40" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="45">
         <v>45021</v>
       </c>
-      <c r="E40" s="47" t="s">
+      <c r="E40" s="46" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1746,19 +1837,19 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="48">
+      <c r="A47" s="47">
         <v>15</v>
       </c>
       <c r="B47" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="49" t="s">
+      <c r="C47" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="49">
+      <c r="D47" s="48">
         <v>45031</v>
       </c>
-      <c r="E47" s="50" t="s">
+      <c r="E47" s="49" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1769,13 +1860,13 @@
       <c r="B48" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="49">
+      <c r="C48" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="48">
         <v>45036</v>
       </c>
-      <c r="E48" s="50" t="s">
+      <c r="E48" s="49" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1836,16 +1927,16 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="52">
+      <c r="A53" s="51">
         <v>88</v>
       </c>
-      <c r="B53" s="53" t="s">
+      <c r="B53" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="55">
+      <c r="C53" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="54">
         <v>45054</v>
       </c>
       <c r="E53" s="9" t="s">
@@ -1853,16 +1944,16 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="52" t="s">
+      <c r="A54" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="53" t="s">
+      <c r="B54" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C54" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="55">
+      <c r="C54" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="54">
         <v>45054</v>
       </c>
     </row>
@@ -1894,23 +1985,23 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="60" customFormat="1" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="56">
+    <row r="57" spans="1:6" s="59" customFormat="1" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="55">
         <v>283</v>
       </c>
-      <c r="B57" s="57" t="s">
+      <c r="B57" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="58" t="s">
+      <c r="C57" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="E57" s="59" t="s">
+      <c r="E57" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="F57" s="60" t="s">
+      <c r="F57" s="59" t="s">
         <v>81</v>
       </c>
     </row>

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vaishali\Desktop\GIT\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3601F0B9-F4C4-4578-A389-14D5F0381CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493A875A-1370-425F-9024-DA7ADECDD7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="87">
   <si>
     <t>Leetcode</t>
   </si>
@@ -557,6 +557,83 @@
         <scheme val="minor"/>
       </rPr>
       <t>-Dutch National Flag</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Brute Force-
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Using two for loop, pick element and compare with the entire array and increment the count once the inner loop end compare the counter if it is &gt;N/2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2.Better Approach-
+3. Optimal Approach- 
+Using Moore Voting Algorithm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Brute Force-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Using two for loop we will check each element with the one in right and add it to leader list or AL.TC--&gt; O(N)2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2. Optimal Approach- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+We will iterate from back and check the element with maxi where maxi is given minimum value if the element is greater than maxi then its the highest among the element to its right.Depending on answer we will return the list if needed sorted or the order needs to be maintained.</t>
     </r>
   </si>
 </sst>
@@ -707,7 +784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -880,14 +957,17 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1172,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1370,13 +1450,13 @@
       <c r="C16" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="63">
+      <c r="D16" s="62">
         <v>44986</v>
       </c>
-      <c r="E16" s="62" t="s">
+      <c r="E16" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="61" t="s">
+      <c r="F16" s="60" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1653,7 +1733,7 @@
       <c r="E34" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F34" s="60" t="s">
+      <c r="F34" s="64" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1671,10 +1751,10 @@
         <v>45006</v>
       </c>
       <c r="E35" s="39"/>
-      <c r="F35" s="60"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="13">
+      <c r="F35" s="64"/>
+    </row>
+    <row r="36" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
         <v>169</v>
       </c>
       <c r="B36" s="11" t="s">
@@ -1683,8 +1763,11 @@
       <c r="C36" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="62">
         <v>45019</v>
+      </c>
+      <c r="E36" s="63" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1752,9 +1835,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="13" t="s">
-        <v>3</v>
+    <row r="41" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>54</v>
@@ -1764,6 +1847,9 @@
       </c>
       <c r="D41" s="12">
         <v>45022</v>
+      </c>
+      <c r="E41" s="61" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">

--- a/Array/Question_Array.xlsx
+++ b/Array/Question_Array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vaishali\Desktop\GIT\Leetcode\Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493A875A-1370-425F-9024-DA7ADECDD7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95800E64-B073-41D8-8BFE-1C66563E9FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="88">
   <si>
     <t>Leetcode</t>
   </si>
@@ -634,6 +634,81 @@
       </rPr>
       <t xml:space="preserve">
 We will iterate from back and check the element with maxi where maxi is given minimum value if the element is greater than maxi then its the highest among the element to its right.Depending on answer we will return the list if needed sorted or the order needs to be maintained.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Brute Force-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+we will pick first element in the array and iterate the entire array again to check if ele+1 is present or not and accordingly update the streak var.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. Better Solution-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. We sort the array
+2. we check if current ele in array-1 is equal to the last smallest, if so we updated the count and store the  current ele in array in lastsmallest
+3. we check if they are not equal we make count=1 and update the last smallest to current ele.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. Optimal Solution-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. We will be using Set and storing each element in the set 
+2. Then we will iterate the array and check ele-1 in the set if it is present we will move to next ele in the array but if its not we will iterate through the set and keep on checking ele+1 till there consecutive sequence is maintains.
+3. once the while loop break we will compare the global streak and current streak.
+4. return the global streak.</t>
     </r>
   </si>
 </sst>
@@ -784,7 +859,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -845,9 +920,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -957,7 +1029,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
@@ -967,7 +1038,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1252,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1263,7 +1352,8 @@
     <col min="3" max="3" width="8.88671875" style="8"/>
     <col min="4" max="4" width="11.6640625" style="8" customWidth="1"/>
     <col min="5" max="5" width="77.109375" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="10"/>
+    <col min="6" max="6" width="8.88671875" style="63"/>
+    <col min="7" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1282,6 +1372,7 @@
       <c r="E1" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
@@ -1450,13 +1541,13 @@
       <c r="C16" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="62">
+      <c r="D16" s="60">
         <v>44986</v>
       </c>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="60" t="s">
+      <c r="F16" s="64" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1490,7 +1581,7 @@
       <c r="E18" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="65" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1537,7 +1628,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23">
+      <c r="A22" s="22">
         <v>26</v>
       </c>
       <c r="B22" s="11" t="s">
@@ -1546,12 +1637,13 @@
       <c r="C22" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="23">
         <v>45000</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>77</v>
       </c>
+      <c r="F22" s="66"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
@@ -1567,20 +1659,21 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="25" t="s">
+    <row r="24" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="28">
+      <c r="C24" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="27">
         <v>45000</v>
       </c>
-      <c r="E24" s="29"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="67"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
@@ -1667,91 +1760,91 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D31" s="33">
         <v>45003</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="34" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="34">
+      <c r="D32" s="33">
         <v>45003</v>
       </c>
-      <c r="E32" s="35" t="s">
+      <c r="E32" s="34" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="34">
+      <c r="D33" s="33">
         <v>45003</v>
       </c>
-      <c r="E33" s="35" t="s">
+      <c r="E33" s="34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="40" customFormat="1" ht="239.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="36">
+    <row r="34" spans="1:6" s="39" customFormat="1" ht="239.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="35">
         <v>1</v>
       </c>
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="38">
+      <c r="C34" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="37">
         <v>45006</v>
       </c>
-      <c r="E34" s="39" t="s">
+      <c r="E34" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="F34" s="64" t="s">
+      <c r="F34" s="68" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="40" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="36" t="s">
+    <row r="35" spans="1:6" s="39" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="38">
+      <c r="C35" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="37">
         <v>45006</v>
       </c>
-      <c r="E35" s="39"/>
-      <c r="F35" s="64"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="68"/>
     </row>
     <row r="36" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
@@ -1763,10 +1856,10 @@
       <c r="C36" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="62">
+      <c r="D36" s="60">
         <v>45019</v>
       </c>
-      <c r="E36" s="63" t="s">
+      <c r="E36" s="61" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1802,36 +1895,36 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="42">
+      <c r="A39" s="41">
         <v>2149</v>
       </c>
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="45">
+      <c r="C39" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="44">
         <v>45021</v>
       </c>
-      <c r="E39" s="46" t="s">
+      <c r="E39" s="45" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="45">
+      <c r="C40" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="44">
         <v>45021</v>
       </c>
-      <c r="E40" s="46" t="s">
+      <c r="E40" s="45" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1848,7 +1941,7 @@
       <c r="D41" s="12">
         <v>45022</v>
       </c>
-      <c r="E41" s="61" t="s">
+      <c r="E41" s="59" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1866,18 +1959,24 @@
         <v>45023</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="s">
+    <row r="43" spans="1:6" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="12">
+      <c r="C43" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="20">
         <v>45023</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F43" s="64" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1923,36 +2022,36 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="47">
+      <c r="A47" s="46">
         <v>15</v>
       </c>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="48" t="s">
+      <c r="C47" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="48">
+      <c r="D47" s="47">
         <v>45031</v>
       </c>
-      <c r="E47" s="49" t="s">
+      <c r="E47" s="48" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="36">
+      <c r="A48" s="35">
         <v>18</v>
       </c>
-      <c r="B48" s="37" t="s">
+      <c r="B48" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="48">
+      <c r="C48" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="47">
         <v>45036</v>
       </c>
-      <c r="E48" s="49" t="s">
+      <c r="E48" s="48" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2013,16 +2112,16 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="51">
+      <c r="A53" s="50">
         <v>88</v>
       </c>
-      <c r="B53" s="52" t="s">
+      <c r="B53" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="54">
+      <c r="C53" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="53">
         <v>45054</v>
       </c>
       <c r="E53" s="9" t="s">
@@ -2030,16 +2129,16 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="51" t="s">
+      <c r="A54" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="C54" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="54">
+      <c r="C54" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="53">
         <v>45054</v>
       </c>
     </row>
@@ -2071,23 +2170,23 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="59" customFormat="1" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="55">
+    <row r="57" spans="1:6" s="58" customFormat="1" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="54">
         <v>283</v>
       </c>
-      <c r="B57" s="56" t="s">
+      <c r="B57" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="57" t="s">
+      <c r="C57" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="E57" s="58" t="s">
+      <c r="E57" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="F57" s="59" t="s">
+      <c r="F57" s="67" t="s">
         <v>81</v>
       </c>
     </row>
